--- a/com.learnautomation.hybrid/TestData/ApplicationData.xlsx
+++ b/com.learnautomation.hybrid/TestData/ApplicationData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>admin123</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Pragati50</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -74,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -97,15 +103,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -116,6 +134,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -164,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,7 +220,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,9 +433,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -429,20 +450,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -453,7 +474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -464,7 +485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -473,6 +494,17 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -486,7 +518,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
